--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.001142</v>
+        <v>3.125459666666667</v>
       </c>
       <c r="H2">
-        <v>33.003426</v>
+        <v>9.376379</v>
       </c>
       <c r="I2">
-        <v>0.04976752323647229</v>
+        <v>0.01427728095460815</v>
       </c>
       <c r="J2">
-        <v>0.04976752323647229</v>
+        <v>0.01427728095460815</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.187598666666667</v>
+        <v>1.070065</v>
       </c>
       <c r="N2">
-        <v>12.562796</v>
+        <v>3.210195</v>
       </c>
       <c r="O2">
-        <v>0.4284941686600627</v>
+        <v>0.07699366399823478</v>
       </c>
       <c r="P2">
-        <v>0.4284941686600626</v>
+        <v>0.07699366399823478</v>
       </c>
       <c r="Q2">
-        <v>46.06836757101067</v>
+        <v>3.344444998211667</v>
       </c>
       <c r="R2">
-        <v>414.615308139096</v>
+        <v>30.100004983905</v>
       </c>
       <c r="S2">
-        <v>0.02132509349548255</v>
+        <v>0.001099260172627496</v>
       </c>
       <c r="T2">
-        <v>0.02132509349548254</v>
+        <v>0.001099260172627497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.001142</v>
+        <v>3.125459666666667</v>
       </c>
       <c r="H3">
-        <v>33.003426</v>
+        <v>9.376379</v>
       </c>
       <c r="I3">
-        <v>0.04976752323647229</v>
+        <v>0.01427728095460815</v>
       </c>
       <c r="J3">
-        <v>0.04976752323647229</v>
+        <v>0.01427728095460815</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.613757</v>
       </c>
       <c r="O3">
-        <v>0.1232586918910792</v>
+        <v>0.08667273864337491</v>
       </c>
       <c r="P3">
-        <v>0.1232586918910792</v>
+        <v>0.08667273864337491</v>
       </c>
       <c r="Q3">
-        <v>13.25181797016467</v>
+        <v>3.764883916211445</v>
       </c>
       <c r="R3">
-        <v>119.266361731482</v>
+        <v>33.883955245903</v>
       </c>
       <c r="S3">
-        <v>0.006134279812786463</v>
+        <v>0.001237451040716786</v>
       </c>
       <c r="T3">
-        <v>0.006134279812786462</v>
+        <v>0.001237451040716787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.001142</v>
+        <v>3.125459666666667</v>
       </c>
       <c r="H4">
-        <v>33.003426</v>
+        <v>9.376379</v>
       </c>
       <c r="I4">
-        <v>0.04976752323647229</v>
+        <v>0.01427728095460815</v>
       </c>
       <c r="J4">
-        <v>0.04976752323647229</v>
+        <v>0.01427728095460815</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.380641</v>
+        <v>11.623441</v>
       </c>
       <c r="N4">
-        <v>13.141923</v>
+        <v>34.870323</v>
       </c>
       <c r="O4">
-        <v>0.4482471394488581</v>
+        <v>0.8363335973583904</v>
       </c>
       <c r="P4">
-        <v>0.4482471394488581</v>
+        <v>0.8363335973583904</v>
       </c>
       <c r="Q4">
-        <v>48.19205369202199</v>
+        <v>36.32859603337966</v>
       </c>
       <c r="R4">
-        <v>433.728483228198</v>
+        <v>326.957364300417</v>
       </c>
       <c r="S4">
-        <v>0.02230814992820328</v>
+        <v>0.01194056974126387</v>
       </c>
       <c r="T4">
-        <v>0.02230814992820328</v>
+        <v>0.01194056974126387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>602.5235739999999</v>
       </c>
       <c r="I5">
-        <v>0.9085755512039061</v>
+        <v>0.9174542056984506</v>
       </c>
       <c r="J5">
-        <v>0.9085755512039061</v>
+        <v>0.9174542056984507</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>4.187598666666667</v>
+        <v>1.070065</v>
       </c>
       <c r="N5">
-        <v>12.562796</v>
+        <v>3.210195</v>
       </c>
       <c r="O5">
-        <v>0.4284941686600627</v>
+        <v>0.07699366399823478</v>
       </c>
       <c r="P5">
-        <v>0.4284941686600626</v>
+        <v>0.07699366399823478</v>
       </c>
       <c r="Q5">
-        <v>841.0423050392116</v>
+        <v>214.9131294041033</v>
       </c>
       <c r="R5">
-        <v>7569.380745352903</v>
+        <v>1934.21816463693</v>
       </c>
       <c r="S5">
-        <v>0.389319325477976</v>
+        <v>0.07063816084731388</v>
       </c>
       <c r="T5">
-        <v>0.3893193254779759</v>
+        <v>0.07063816084731389</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>602.5235739999999</v>
       </c>
       <c r="I6">
-        <v>0.9085755512039061</v>
+        <v>0.9174542056984506</v>
       </c>
       <c r="J6">
-        <v>0.9085755512039061</v>
+        <v>0.9174542056984507</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.613757</v>
       </c>
       <c r="O6">
-        <v>0.1232586918910792</v>
+        <v>0.08667273864337491</v>
       </c>
       <c r="P6">
-        <v>0.1232586918910792</v>
+        <v>0.08667273864337491</v>
       </c>
       <c r="Q6">
         <v>241.9304203563909</v>
@@ -818,10 +818,10 @@
         <v>2177.373783207518</v>
       </c>
       <c r="S6">
-        <v>0.1119898339256097</v>
+        <v>0.07951826858776694</v>
       </c>
       <c r="T6">
-        <v>0.1119898339256097</v>
+        <v>0.07951826858776694</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>602.5235739999999</v>
       </c>
       <c r="I7">
-        <v>0.9085755512039061</v>
+        <v>0.9174542056984506</v>
       </c>
       <c r="J7">
-        <v>0.9085755512039061</v>
+        <v>0.9174542056984507</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.380641</v>
+        <v>11.623441</v>
       </c>
       <c r="N7">
-        <v>13.141923</v>
+        <v>34.870323</v>
       </c>
       <c r="O7">
-        <v>0.4482471394488581</v>
+        <v>0.8363335973583904</v>
       </c>
       <c r="P7">
-        <v>0.4482471394488581</v>
+        <v>0.8363335973583904</v>
       </c>
       <c r="Q7">
-        <v>879.8131572436446</v>
+        <v>2334.465737832711</v>
       </c>
       <c r="R7">
-        <v>7918.318415192802</v>
+        <v>21010.1916404944</v>
       </c>
       <c r="S7">
-        <v>0.4072663918003204</v>
+        <v>0.7672977762633699</v>
       </c>
       <c r="T7">
-        <v>0.4072663918003204</v>
+        <v>0.7672977762633699</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.208289333333333</v>
+        <v>14.94475633333333</v>
       </c>
       <c r="H8">
-        <v>27.624868</v>
+        <v>44.834269</v>
       </c>
       <c r="I8">
-        <v>0.04165692555962159</v>
+        <v>0.06826851334694113</v>
       </c>
       <c r="J8">
-        <v>0.04165692555962159</v>
+        <v>0.06826851334694113</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>4.187598666666667</v>
+        <v>1.070065</v>
       </c>
       <c r="N8">
-        <v>12.562796</v>
+        <v>3.210195</v>
       </c>
       <c r="O8">
-        <v>0.4284941686600627</v>
+        <v>0.07699366399823478</v>
       </c>
       <c r="P8">
-        <v>0.4284941686600626</v>
+        <v>0.07699366399823478</v>
       </c>
       <c r="Q8">
-        <v>38.56062013454756</v>
+        <v>15.99186068582833</v>
       </c>
       <c r="R8">
-        <v>347.045581210928</v>
+        <v>143.926746172455</v>
       </c>
       <c r="S8">
-        <v>0.01784974968660417</v>
+        <v>0.005256242978293392</v>
       </c>
       <c r="T8">
-        <v>0.01784974968660417</v>
+        <v>0.005256242978293392</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.208289333333333</v>
+        <v>14.94475633333333</v>
       </c>
       <c r="H9">
-        <v>27.624868</v>
+        <v>44.834269</v>
       </c>
       <c r="I9">
-        <v>0.04165692555962159</v>
+        <v>0.06826851334694113</v>
       </c>
       <c r="J9">
-        <v>0.04165692555962159</v>
+        <v>0.06826851334694113</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.613757</v>
       </c>
       <c r="O9">
-        <v>0.1232586918910792</v>
+        <v>0.08667273864337491</v>
       </c>
       <c r="P9">
-        <v>0.1232586918910792</v>
+        <v>0.08667273864337491</v>
       </c>
       <c r="Q9">
-        <v>11.09217334545289</v>
+        <v>18.00223927095922</v>
       </c>
       <c r="R9">
-        <v>99.829560109076</v>
+        <v>162.020153438633</v>
       </c>
       <c r="S9">
-        <v>0.00513457815268302</v>
+        <v>0.00591701901489118</v>
       </c>
       <c r="T9">
-        <v>0.005134578152683019</v>
+        <v>0.00591701901489118</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.208289333333333</v>
+        <v>14.94475633333333</v>
       </c>
       <c r="H10">
-        <v>27.624868</v>
+        <v>44.834269</v>
       </c>
       <c r="I10">
-        <v>0.04165692555962159</v>
+        <v>0.06826851334694113</v>
       </c>
       <c r="J10">
-        <v>0.04165692555962159</v>
+        <v>0.06826851334694113</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.380641</v>
+        <v>11.623441</v>
       </c>
       <c r="N10">
-        <v>13.141923</v>
+        <v>34.870323</v>
       </c>
       <c r="O10">
-        <v>0.4482471394488581</v>
+        <v>0.8363335973583904</v>
       </c>
       <c r="P10">
-        <v>0.4482471394488581</v>
+        <v>0.8363335973583904</v>
       </c>
       <c r="Q10">
-        <v>40.33820979346267</v>
+        <v>173.7094934998763</v>
       </c>
       <c r="R10">
-        <v>363.043888141164</v>
+        <v>1563.385441498887</v>
       </c>
       <c r="S10">
-        <v>0.0186725977203344</v>
+        <v>0.05709525135375657</v>
       </c>
       <c r="T10">
-        <v>0.0186725977203344</v>
+        <v>0.05709525135375657</v>
       </c>
     </row>
   </sheetData>
